--- a/Trace/Trace.xlsx
+++ b/Trace/Trace.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="42">
   <si>
     <t>Age</t>
   </si>
@@ -66,12 +66,6 @@
     <t>forte</t>
   </si>
   <si>
-    <t>&lt;6</t>
-  </si>
-  <si>
-    <t>&gt;16</t>
-  </si>
-  <si>
     <t>tapie</t>
   </si>
   <si>
@@ -81,35 +75,80 @@
     <t>Bijoux</t>
   </si>
   <si>
-    <t>moyenne</t>
-  </si>
-  <si>
-    <t>&lt;11</t>
-  </si>
-  <si>
     <t>Alimentation</t>
   </si>
   <si>
     <t>Professional</t>
   </si>
   <si>
-    <t>Debutant</t>
-  </si>
-  <si>
     <t>Tapie</t>
   </si>
   <si>
-    <t>&gt;11</t>
-  </si>
-  <si>
-    <t>moyyene</t>
+    <t>poitrie</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Meduim</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Problem12</t>
+  </si>
+  <si>
+    <t>Problem22</t>
+  </si>
+  <si>
+    <t>Problem32</t>
+  </si>
+  <si>
+    <t>Problem42</t>
+  </si>
+  <si>
+    <t>Problem51</t>
+  </si>
+  <si>
+    <t>Problem62</t>
+  </si>
+  <si>
+    <t>Problem71</t>
+  </si>
+  <si>
+    <t>Problem81</t>
+  </si>
+  <si>
+    <t>Problem11</t>
+  </si>
+  <si>
+    <t>Problem31</t>
+  </si>
+  <si>
+    <t>Problem61</t>
+  </si>
+  <si>
+    <t>Problem41</t>
+  </si>
+  <si>
+    <t>Problem52</t>
+  </si>
+  <si>
+    <t>Problem21</t>
+  </si>
+  <si>
+    <t>Problem82</t>
+  </si>
+  <si>
+    <t>Problem72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,7 +302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,14 +477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -459,7 +496,7 @@
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,294 +537,294 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.9</v>
-      </c>
-      <c r="H2">
-        <v>0.9</v>
-      </c>
-      <c r="I2">
-        <v>0.8</v>
-      </c>
-      <c r="J2">
-        <v>0.3</v>
-      </c>
-      <c r="K2">
-        <v>0.6</v>
-      </c>
-      <c r="L2">
-        <v>0.1</v>
-      </c>
-      <c r="M2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>0.9</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3">
-        <v>0.7</v>
-      </c>
-      <c r="J3">
-        <v>0.2</v>
-      </c>
-      <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>0.8</v>
-      </c>
-      <c r="G4">
-        <v>0.7</v>
-      </c>
-      <c r="H4">
-        <v>0.3</v>
-      </c>
-      <c r="I4">
-        <v>0.1</v>
-      </c>
-      <c r="J4">
-        <v>0.8</v>
-      </c>
-      <c r="K4">
-        <v>0.5</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>0.8</v>
-      </c>
-      <c r="G5">
-        <v>0.8</v>
-      </c>
-      <c r="H5">
-        <v>0.7</v>
-      </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
-        <v>0.4</v>
-      </c>
-      <c r="K5">
-        <v>0.4</v>
-      </c>
-      <c r="L5">
-        <v>0.1</v>
-      </c>
-      <c r="M5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>0.2</v>
-      </c>
-      <c r="G6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <v>0.8</v>
-      </c>
-      <c r="I6">
-        <v>0.8</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0.8</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.9</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.9</v>
-      </c>
-      <c r="J7">
-        <v>0.9</v>
-      </c>
-      <c r="K7">
-        <v>0.8</v>
-      </c>
-      <c r="L7">
-        <v>0.2</v>
-      </c>
-      <c r="M7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>0.6</v>
-      </c>
-      <c r="G8">
-        <v>0.7</v>
-      </c>
-      <c r="H8">
-        <v>0.6</v>
-      </c>
-      <c r="I8">
-        <v>0.8</v>
-      </c>
-      <c r="J8">
-        <v>0.6</v>
-      </c>
-      <c r="K8">
-        <v>0.6</v>
-      </c>
-      <c r="L8">
-        <v>0.8</v>
-      </c>
-      <c r="M8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>53</v>
       </c>
@@ -795,81 +832,81 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9">
-        <v>0.4</v>
-      </c>
-      <c r="G9">
-        <v>0.7</v>
-      </c>
-      <c r="H9">
-        <v>0.3</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.2</v>
-      </c>
-      <c r="K9">
-        <v>0.9</v>
-      </c>
-      <c r="L9">
-        <v>0.1</v>
-      </c>
-      <c r="M9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>0.8</v>
-      </c>
-      <c r="G10">
-        <v>0.7</v>
-      </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10">
-        <v>0.5</v>
-      </c>
-      <c r="K10">
-        <v>0.7</v>
-      </c>
-      <c r="L10">
-        <v>0.2</v>
-      </c>
-      <c r="M10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>64</v>
       </c>
@@ -880,37 +917,37 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>0.8</v>
-      </c>
-      <c r="G11">
-        <v>0.8</v>
-      </c>
-      <c r="H11">
-        <v>0.7</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>0.4</v>
-      </c>
-      <c r="K11">
-        <v>0.4</v>
-      </c>
-      <c r="L11">
-        <v>0.1</v>
-      </c>
-      <c r="M11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>73</v>
       </c>
@@ -918,37 +955,816 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12">
-        <v>0.6</v>
-      </c>
-      <c r="G12">
-        <v>0.8</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.8</v>
-      </c>
-      <c r="K12">
-        <v>0.8</v>
-      </c>
-      <c r="L12">
-        <v>0.7</v>
-      </c>
-      <c r="M12">
-        <v>0.9</v>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -957,24 +1773,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
